--- a/results/NOAA_Weather/scores_NOAA_Weather.xlsx
+++ b/results/NOAA_Weather/scores_NOAA_Weather.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,13 +408,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6115</v>
+        <v>0.6</v>
       </c>
       <c r="E2" t="n">
         <v>0.6111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6131</v>
+        <v>0.5833</v>
       </c>
     </row>
     <row r="3">
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6047</v>
+        <v>0.6083</v>
       </c>
       <c r="E3" t="n">
         <v>0.6107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5909</v>
+        <v>0.5923</v>
       </c>
     </row>
     <row r="4">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0521</v>
+        <v>0.0586</v>
       </c>
       <c r="E4" t="n">
         <v>0.0594</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08690000000000001</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="5">
@@ -471,22 +471,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>min</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.705</v>
+        <v>0.4528</v>
       </c>
       <c r="E5" t="n">
-        <v>0.705</v>
+        <v>0.4783</v>
       </c>
       <c r="F5" t="n">
-        <v>0.755</v>
+        <v>0.4696</v>
       </c>
     </row>
     <row r="6">
@@ -495,22 +495,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>max</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7044</v>
+        <v>0.6919</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6985</v>
+        <v>0.7067</v>
       </c>
       <c r="F6" t="n">
-        <v>0.755</v>
+        <v>0.7067</v>
       </c>
     </row>
     <row r="7">
@@ -519,22 +519,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0398</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.043</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -543,22 +549,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>training time</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>median</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>35.3875</v>
+        <v>0.7</v>
       </c>
       <c r="E8" t="n">
-        <v>1.1645</v>
+        <v>0.705</v>
       </c>
       <c r="F8" t="n">
-        <v>4.1193</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="9">
@@ -567,22 +573,322 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6891</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6985</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7529</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0367</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.665</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.805</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3814</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3946</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4226</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3821</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0751</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.08939999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0692</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1974</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2002</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2636</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4666</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5331</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5331</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>training time</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>26.0416</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.1829</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>prediction time</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0.3577</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1698</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.211</v>
+      <c r="D21" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1807</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2164</v>
       </c>
     </row>
   </sheetData>

--- a/results/NOAA_Weather/scores_NOAA_Weather.xlsx
+++ b/results/NOAA_Weather/scores_NOAA_Weather.xlsx
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>26.0416</v>
+        <v>27.8532</v>
       </c>
       <c r="E20" t="n">
-        <v>1.1829</v>
+        <v>1.167</v>
       </c>
       <c r="F20" t="n">
-        <v>3.32</v>
+        <v>3.2351</v>
       </c>
     </row>
     <row r="21">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.3425</v>
+        <v>0.4642</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1807</v>
+        <v>0.1746</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2164</v>
+        <v>0.1934</v>
       </c>
     </row>
   </sheetData>

--- a/results/NOAA_Weather/scores_NOAA_Weather.xlsx
+++ b/results/NOAA_Weather/scores_NOAA_Weather.xlsx
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>27.8532</v>
+        <v>27.4263</v>
       </c>
       <c r="E20" t="n">
-        <v>1.167</v>
+        <v>1.1488</v>
       </c>
       <c r="F20" t="n">
-        <v>3.2351</v>
+        <v>3.3123</v>
       </c>
     </row>
     <row r="21">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.4642</v>
+        <v>0.4092</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1746</v>
+        <v>0.1648</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1934</v>
+        <v>0.2024</v>
       </c>
     </row>
   </sheetData>
